--- a/data/score.stats.2023.xlsx
+++ b/data/score.stats.2023.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\zhongkao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5872DE5C-74EF-4153-A49B-01F1EACB0536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753144E7-BC8B-4023-88BD-15F58C96F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,6 +687,2432 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>人数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$A$2:$A$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>618</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>612</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>598</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>597</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>568</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>539</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>527</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>458</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$B$2:$B$257</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0911-4AF2-A5B3-B96CFFF8B894}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1887028464"/>
+        <c:axId val="1887029424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1887028464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887029424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1887029424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1887028464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73996D0C-7111-4A04-ABEA-E721F4AF78B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -982,11 +3409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I251" sqref="I251"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3822,4 +6249,20 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D44588-E5B7-425B-AD7E-633A72F008CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>